--- a/step2-responses.xlsx
+++ b/step2-responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>few_shot_gemini</t>
-  </si>
-  <si>
-    <t>direct_response_claude</t>
-  </si>
-  <si>
-    <t>cot_response_claude</t>
-  </si>
-  <si>
-    <t>few_shot_claude</t>
   </si>
   <si>
     <t xml:space="preserve">Write a Python function using TensorFlow to create and compile a simple linear regression model with one dense layer. Train it on the classic California housing dataset.
@@ -5499,37 +5490,31 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -5537,25 +5522,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -5563,25 +5548,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5589,25 +5574,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -5615,25 +5600,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -5641,25 +5626,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -5667,25 +5652,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -5693,25 +5678,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
